--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="567">
   <si>
     <t>FirstName</t>
   </si>
@@ -1341,6 +1341,387 @@
   </si>
   <si>
     <t>AssignmentName20718</t>
+  </si>
+  <si>
+    <t>FPK12School19775</t>
+  </si>
+  <si>
+    <t>FPK12Classroom22817</t>
+  </si>
+  <si>
+    <t>FPK12Section75686</t>
+  </si>
+  <si>
+    <t>32950</t>
+  </si>
+  <si>
+    <t>18987</t>
+  </si>
+  <si>
+    <t>17445</t>
+  </si>
+  <si>
+    <t>PortfolioCourse94356</t>
+  </si>
+  <si>
+    <t>AssignmentName94356</t>
+  </si>
+  <si>
+    <t>PortfolioCourse62909</t>
+  </si>
+  <si>
+    <t>AssignmentName62909</t>
+  </si>
+  <si>
+    <t>PortfolioCourse13312</t>
+  </si>
+  <si>
+    <t>AssignmentName13312</t>
+  </si>
+  <si>
+    <t>PortfolioCourse41461</t>
+  </si>
+  <si>
+    <t>AssignmentName41461</t>
+  </si>
+  <si>
+    <t>PortfolioCourse4388</t>
+  </si>
+  <si>
+    <t>AssignmentName4388</t>
+  </si>
+  <si>
+    <t>PortfolioCourse53600</t>
+  </si>
+  <si>
+    <t>AssignmentName53600</t>
+  </si>
+  <si>
+    <t>PortfolioCourse56914</t>
+  </si>
+  <si>
+    <t>AssignmentName56914</t>
+  </si>
+  <si>
+    <t>PortfolioCourse69825</t>
+  </si>
+  <si>
+    <t>AssignmentName69825</t>
+  </si>
+  <si>
+    <t>PortfolioCourse56250</t>
+  </si>
+  <si>
+    <t>AssignmentName56250</t>
+  </si>
+  <si>
+    <t>FPK12School17608</t>
+  </si>
+  <si>
+    <t>FPK12School93632</t>
+  </si>
+  <si>
+    <t>FPK12Classroom36587</t>
+  </si>
+  <si>
+    <t>FPK12Section13457</t>
+  </si>
+  <si>
+    <t>25548</t>
+  </si>
+  <si>
+    <t>37308</t>
+  </si>
+  <si>
+    <t>41942</t>
+  </si>
+  <si>
+    <t>PortfolioCourse34259</t>
+  </si>
+  <si>
+    <t>AssignmentName34259</t>
+  </si>
+  <si>
+    <t>PortfolioCourse42925</t>
+  </si>
+  <si>
+    <t>AssignmentName42925</t>
+  </si>
+  <si>
+    <t>FPK12School90618</t>
+  </si>
+  <si>
+    <t>FPK12Classroom19728</t>
+  </si>
+  <si>
+    <t>FPK12Section74323</t>
+  </si>
+  <si>
+    <t>35269</t>
+  </si>
+  <si>
+    <t>78797</t>
+  </si>
+  <si>
+    <t>10463</t>
+  </si>
+  <si>
+    <t>PortfolioCourse49359</t>
+  </si>
+  <si>
+    <t>AssignmentName49359</t>
+  </si>
+  <si>
+    <t>FPK12School7979</t>
+  </si>
+  <si>
+    <t>FPK12Classroom13021</t>
+  </si>
+  <si>
+    <t>FPK12Section46961</t>
+  </si>
+  <si>
+    <t>34289</t>
+  </si>
+  <si>
+    <t>23618</t>
+  </si>
+  <si>
+    <t>72877</t>
+  </si>
+  <si>
+    <t>PortfolioCourse98502</t>
+  </si>
+  <si>
+    <t>AssignmentName98502</t>
+  </si>
+  <si>
+    <t>PortfolioCourse79924</t>
+  </si>
+  <si>
+    <t>AssignmentName79924</t>
+  </si>
+  <si>
+    <t>FPK12School59517</t>
+  </si>
+  <si>
+    <t>FPK12Classroom9790</t>
+  </si>
+  <si>
+    <t>FPK12Section48292</t>
+  </si>
+  <si>
+    <t>23994</t>
+  </si>
+  <si>
+    <t>64461</t>
+  </si>
+  <si>
+    <t>55408</t>
+  </si>
+  <si>
+    <t>PortfolioCourse97817</t>
+  </si>
+  <si>
+    <t>AssignmentName97817</t>
+  </si>
+  <si>
+    <t>FPK12School8137</t>
+  </si>
+  <si>
+    <t>FPK12Classroom82267</t>
+  </si>
+  <si>
+    <t>FPK12Section65853</t>
+  </si>
+  <si>
+    <t>12424</t>
+  </si>
+  <si>
+    <t>92789</t>
+  </si>
+  <si>
+    <t>19270</t>
+  </si>
+  <si>
+    <t>PortfolioCourse70622</t>
+  </si>
+  <si>
+    <t>AssignmentName70622</t>
+  </si>
+  <si>
+    <t>FPK12School72833</t>
+  </si>
+  <si>
+    <t>FPK12Classroom31284</t>
+  </si>
+  <si>
+    <t>FPK12Section13367</t>
+  </si>
+  <si>
+    <t>36558</t>
+  </si>
+  <si>
+    <t>47376</t>
+  </si>
+  <si>
+    <t>36295</t>
+  </si>
+  <si>
+    <t>PortfolioCourse55749</t>
+  </si>
+  <si>
+    <t>AssignmentName55749</t>
+  </si>
+  <si>
+    <t>PortfolioCourse3772</t>
+  </si>
+  <si>
+    <t>AssignmentName3772</t>
+  </si>
+  <si>
+    <t>FPK12School84282</t>
+  </si>
+  <si>
+    <t>FPK12Classroom39810</t>
+  </si>
+  <si>
+    <t>FPK12Section86119</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>FPK12School72649</t>
+  </si>
+  <si>
+    <t>FPK12Classroom4910</t>
+  </si>
+  <si>
+    <t>FPK12Section48192</t>
+  </si>
+  <si>
+    <t>52729</t>
+  </si>
+  <si>
+    <t>17869</t>
+  </si>
+  <si>
+    <t>76178</t>
+  </si>
+  <si>
+    <t>PortfolioCourse7286</t>
+  </si>
+  <si>
+    <t>AssignmentName7286</t>
+  </si>
+  <si>
+    <t>PortfolioCourse17033</t>
+  </si>
+  <si>
+    <t>AssignmentName17033</t>
+  </si>
+  <si>
+    <t>FPK12School62625</t>
+  </si>
+  <si>
+    <t>FPK12Classroom35388</t>
+  </si>
+  <si>
+    <t>FPK12Section60045</t>
+  </si>
+  <si>
+    <t>97520</t>
+  </si>
+  <si>
+    <t>8014</t>
+  </si>
+  <si>
+    <t>94151</t>
+  </si>
+  <si>
+    <t>PortfolioCourse23449</t>
+  </si>
+  <si>
+    <t>AssignmentName23449</t>
+  </si>
+  <si>
+    <t>PortfolioCourse3550</t>
+  </si>
+  <si>
+    <t>AssignmentName3550</t>
+  </si>
+  <si>
+    <t>FPK12School18745</t>
+  </si>
+  <si>
+    <t>FPK12Classroom26290</t>
+  </si>
+  <si>
+    <t>FPK12Section14007</t>
+  </si>
+  <si>
+    <t>91672</t>
+  </si>
+  <si>
+    <t>94017</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>FPK12School23810</t>
+  </si>
+  <si>
+    <t>FPK12Classroom85445</t>
+  </si>
+  <si>
+    <t>FPK12Section29434</t>
+  </si>
+  <si>
+    <t>35066</t>
+  </si>
+  <si>
+    <t>84080</t>
+  </si>
+  <si>
+    <t>69386</t>
+  </si>
+  <si>
+    <t>PortfolioCourse29652</t>
+  </si>
+  <si>
+    <t>AssignmentName29652</t>
+  </si>
+  <si>
+    <t>FPK12School56873</t>
+  </si>
+  <si>
+    <t>FPK12Classroom10054</t>
+  </si>
+  <si>
+    <t>FPK12Section96566</t>
+  </si>
+  <si>
+    <t>74471</t>
+  </si>
+  <si>
+    <t>6890</t>
+  </si>
+  <si>
+    <t>99372</t>
+  </si>
+  <si>
+    <t>PortfolioCourse82336</t>
+  </si>
+  <si>
+    <t>AssignmentName82336</t>
+  </si>
+  <si>
+    <t>PortfolioCourse66087</t>
+  </si>
+  <si>
+    <t>AssignmentName66087</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,6 +1930,276 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2123,14 +2774,14 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="71">
-        <v>430</v>
-      </c>
-      <c r="B2" t="s" s="72">
-        <v>431</v>
-      </c>
-      <c r="C2" t="s" s="73">
-        <v>432</v>
+      <c r="A2" t="s" s="161">
+        <v>557</v>
+      </c>
+      <c r="B2" t="s" s="162">
+        <v>558</v>
+      </c>
+      <c r="C2" t="s" s="163">
+        <v>559</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -2159,20 +2810,20 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="74">
-        <v>436</v>
+      <c r="M2" t="s" s="164">
+        <v>563</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s" s="75">
-        <v>437</v>
+      <c r="O2" t="s" s="165">
+        <v>564</v>
       </c>
       <c r="P2" s="6">
         <v>75</v>
       </c>
-      <c r="Q2" t="s" s="76">
-        <v>438</v>
+      <c r="Q2" t="s" s="166">
+        <v>565</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>47</v>
@@ -2183,8 +2834,8 @@
       <c r="T2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U2" t="s" s="77">
-        <v>439</v>
+      <c r="U2" t="s" s="167">
+        <v>566</v>
       </c>
       <c r="V2" s="0">
         <v>88</v>
@@ -2201,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>433</v>
+        <v>560</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -2215,7 +2866,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>434</v>
+        <v>561</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -2232,7 +2883,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>435</v>
+        <v>562</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="237">
   <si>
     <t>FirstName</t>
   </si>
@@ -573,6 +573,165 @@
   </si>
   <si>
     <t>AssignmentName67597</t>
+  </si>
+  <si>
+    <t>FPK12School63245</t>
+  </si>
+  <si>
+    <t>FPK12Classroom45038</t>
+  </si>
+  <si>
+    <t>FPK12Section8321</t>
+  </si>
+  <si>
+    <t>FPK12Section48351</t>
+  </si>
+  <si>
+    <t>11830</t>
+  </si>
+  <si>
+    <t>10234</t>
+  </si>
+  <si>
+    <t>10457</t>
+  </si>
+  <si>
+    <t>FPK12School26145</t>
+  </si>
+  <si>
+    <t>FPK12Classroom33977</t>
+  </si>
+  <si>
+    <t>FPK12Section24480</t>
+  </si>
+  <si>
+    <t>23079</t>
+  </si>
+  <si>
+    <t>58922</t>
+  </si>
+  <si>
+    <t>95510</t>
+  </si>
+  <si>
+    <t>PortfolioCourse66592</t>
+  </si>
+  <si>
+    <t>AssignmentName66592</t>
+  </si>
+  <si>
+    <t>PortfolioCourse77994</t>
+  </si>
+  <si>
+    <t>AssignmentName77994</t>
+  </si>
+  <si>
+    <t>PortfolioCourse89262</t>
+  </si>
+  <si>
+    <t>AssignmentName89262</t>
+  </si>
+  <si>
+    <t>FPK12School96665</t>
+  </si>
+  <si>
+    <t>FPK12Classroom1089</t>
+  </si>
+  <si>
+    <t>FPK12Section29376</t>
+  </si>
+  <si>
+    <t>FPK12Section66251</t>
+  </si>
+  <si>
+    <t>FPK12Section7413</t>
+  </si>
+  <si>
+    <t>57286</t>
+  </si>
+  <si>
+    <t>43161</t>
+  </si>
+  <si>
+    <t>21921</t>
+  </si>
+  <si>
+    <t>PortfolioCourse95733</t>
+  </si>
+  <si>
+    <t>AssignmentName95733</t>
+  </si>
+  <si>
+    <t>PortfolioCourse33312</t>
+  </si>
+  <si>
+    <t>AssignmentName33312</t>
+  </si>
+  <si>
+    <t>FPK12School94537</t>
+  </si>
+  <si>
+    <t>FPK12Classroom89640</t>
+  </si>
+  <si>
+    <t>FPK12Section6870</t>
+  </si>
+  <si>
+    <t>FPK12Section55100</t>
+  </si>
+  <si>
+    <t>FPK12School51467</t>
+  </si>
+  <si>
+    <t>FPK12Classroom45652</t>
+  </si>
+  <si>
+    <t>FPK12Section82217</t>
+  </si>
+  <si>
+    <t>FPK12Section80795</t>
+  </si>
+  <si>
+    <t>84966</t>
+  </si>
+  <si>
+    <t>PortfolioCourse79214</t>
+  </si>
+  <si>
+    <t>AssignmentName79214</t>
+  </si>
+  <si>
+    <t>FPK12School85029</t>
+  </si>
+  <si>
+    <t>FPK12Classroom5486</t>
+  </si>
+  <si>
+    <t>FPK12Section35283</t>
+  </si>
+  <si>
+    <t>FPK12Section29558</t>
+  </si>
+  <si>
+    <t>5358</t>
+  </si>
+  <si>
+    <t>49976</t>
+  </si>
+  <si>
+    <t>79585</t>
+  </si>
+  <si>
+    <t>PortfolioCourse83102</t>
+  </si>
+  <si>
+    <t>AssignmentName83102</t>
+  </si>
+  <si>
+    <t>PortfolioCourse58237</t>
+  </si>
+  <si>
+    <t>AssignmentName58237</t>
   </si>
 </sst>
 </file>
@@ -718,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,6 +937,126 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1531,14 +1810,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="137">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s" s="138">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s" s="141">
-        <v>176</v>
+      <c r="A2" t="s" s="178">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s" s="179">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s" s="181">
+        <v>229</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -1567,17 +1846,17 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="142">
-        <v>180</v>
-      </c>
-      <c r="N2" t="s" s="143">
-        <v>181</v>
-      </c>
-      <c r="O2" t="s" s="144">
-        <v>182</v>
-      </c>
-      <c r="P2" t="s" s="145">
-        <v>183</v>
+      <c r="M2" t="s" s="182">
+        <v>233</v>
+      </c>
+      <c r="N2" t="s" s="183">
+        <v>234</v>
+      </c>
+      <c r="O2" t="s" s="184">
+        <v>235</v>
+      </c>
+      <c r="P2" t="s" s="185">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1585,7 +1864,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -1599,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -1616,7 +1895,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="241">
   <si>
     <t>FirstName</t>
   </si>
@@ -732,6 +732,18 @@
   </si>
   <si>
     <t>AssignmentName58237</t>
+  </si>
+  <si>
+    <t>PortfolioCourse48048</t>
+  </si>
+  <si>
+    <t>AssignmentName48048</t>
+  </si>
+  <si>
+    <t>PortfolioCourse58878</t>
+  </si>
+  <si>
+    <t>AssignmentName58878</t>
   </si>
 </sst>
 </file>
@@ -877,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -937,6 +949,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1846,17 +1870,17 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="182">
-        <v>233</v>
-      </c>
-      <c r="N2" t="s" s="183">
-        <v>234</v>
-      </c>
-      <c r="O2" t="s" s="184">
-        <v>235</v>
-      </c>
-      <c r="P2" t="s" s="185">
-        <v>236</v>
+      <c r="M2" t="s" s="186">
+        <v>237</v>
+      </c>
+      <c r="N2" t="s" s="187">
+        <v>238</v>
+      </c>
+      <c r="O2" t="s" s="188">
+        <v>239</v>
+      </c>
+      <c r="P2" t="s" s="189">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="243">
   <si>
     <t>FirstName</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t>AssignmentName58878</t>
+  </si>
+  <si>
+    <t>PortfolioCourse18223</t>
+  </si>
+  <si>
+    <t>AssignmentName18223</t>
   </si>
 </sst>
 </file>
@@ -889,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,6 +955,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1870,11 +1882,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="186">
-        <v>237</v>
-      </c>
-      <c r="N2" t="s" s="187">
-        <v>238</v>
+      <c r="M2" t="s" s="190">
+        <v>241</v>
+      </c>
+      <c r="N2" t="s" s="191">
+        <v>242</v>
       </c>
       <c r="O2" t="s" s="188">
         <v>239</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="247">
   <si>
     <t>FirstName</t>
   </si>
@@ -750,6 +750,18 @@
   </si>
   <si>
     <t>AssignmentName18223</t>
+  </si>
+  <si>
+    <t>PortfolioCourse60961</t>
+  </si>
+  <si>
+    <t>AssignmentName60961</t>
+  </si>
+  <si>
+    <t>PortfolioCourse58515</t>
+  </si>
+  <si>
+    <t>AssignmentName58515</t>
   </si>
 </sst>
 </file>
@@ -895,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,6 +967,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1888,11 +1912,11 @@
       <c r="N2" t="s" s="191">
         <v>242</v>
       </c>
-      <c r="O2" t="s" s="188">
-        <v>239</v>
-      </c>
-      <c r="P2" t="s" s="189">
-        <v>240</v>
+      <c r="O2" t="s" s="194">
+        <v>245</v>
+      </c>
+      <c r="P2" t="s" s="195">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="257">
   <si>
     <t>FirstName</t>
   </si>
@@ -762,6 +762,36 @@
   </si>
   <si>
     <t>AssignmentName58515</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43911</t>
+  </si>
+  <si>
+    <t>AssignmentName43911</t>
+  </si>
+  <si>
+    <t>PortfolioCourse47129</t>
+  </si>
+  <si>
+    <t>AssignmentName47129</t>
+  </si>
+  <si>
+    <t>PortfolioCourse81587</t>
+  </si>
+  <si>
+    <t>AssignmentName81587</t>
+  </si>
+  <si>
+    <t>PortfolioCourse50493</t>
+  </si>
+  <si>
+    <t>AssignmentName50493</t>
+  </si>
+  <si>
+    <t>PortfolioCourse7610</t>
+  </si>
+  <si>
+    <t>AssignmentName7610</t>
   </si>
 </sst>
 </file>
@@ -907,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,6 +997,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1912,11 +1972,11 @@
       <c r="N2" t="s" s="191">
         <v>242</v>
       </c>
-      <c r="O2" t="s" s="194">
-        <v>245</v>
-      </c>
-      <c r="P2" t="s" s="195">
-        <v>246</v>
+      <c r="O2" t="s" s="204">
+        <v>255</v>
+      </c>
+      <c r="P2" t="s" s="205">
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="283">
   <si>
     <t>FirstName</t>
   </si>
@@ -792,6 +792,84 @@
   </si>
   <si>
     <t>AssignmentName7610</t>
+  </si>
+  <si>
+    <t>PortfolioCourse4697</t>
+  </si>
+  <si>
+    <t>AssignmentName4697</t>
+  </si>
+  <si>
+    <t>PortfolioCourse80890</t>
+  </si>
+  <si>
+    <t>AssignmentName80890</t>
+  </si>
+  <si>
+    <t>PortfolioCourse76366</t>
+  </si>
+  <si>
+    <t>AssignmentName76366</t>
+  </si>
+  <si>
+    <t>PortfolioCourse48799</t>
+  </si>
+  <si>
+    <t>AssignmentName48799</t>
+  </si>
+  <si>
+    <t>PortfolioCourse26464</t>
+  </si>
+  <si>
+    <t>AssignmentName26464</t>
+  </si>
+  <si>
+    <t>PortfolioCourse40245</t>
+  </si>
+  <si>
+    <t>AssignmentName40245</t>
+  </si>
+  <si>
+    <t>PortfolioCourse50584</t>
+  </si>
+  <si>
+    <t>AssignmentName50584</t>
+  </si>
+  <si>
+    <t>PortfolioCourse12379</t>
+  </si>
+  <si>
+    <t>AssignmentName12379</t>
+  </si>
+  <si>
+    <t>PortfolioCourse41638</t>
+  </si>
+  <si>
+    <t>AssignmentName41638</t>
+  </si>
+  <si>
+    <t>PortfolioCourse69056</t>
+  </si>
+  <si>
+    <t>AssignmentName69056</t>
+  </si>
+  <si>
+    <t>PortfolioCourse73666</t>
+  </si>
+  <si>
+    <t>AssignmentName73666</t>
+  </si>
+  <si>
+    <t>PortfolioCourse31463</t>
+  </si>
+  <si>
+    <t>AssignmentName31463</t>
+  </si>
+  <si>
+    <t>PortfolioCourse36207</t>
+  </si>
+  <si>
+    <t>AssignmentName36207</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -997,6 +1075,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1966,17 +2122,17 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="190">
-        <v>241</v>
-      </c>
-      <c r="N2" t="s" s="191">
-        <v>242</v>
-      </c>
-      <c r="O2" t="s" s="204">
-        <v>255</v>
-      </c>
-      <c r="P2" t="s" s="205">
-        <v>256</v>
+      <c r="M2" t="s" s="228">
+        <v>279</v>
+      </c>
+      <c r="N2" t="s" s="229">
+        <v>280</v>
+      </c>
+      <c r="O2" t="s" s="230">
+        <v>281</v>
+      </c>
+      <c r="P2" t="s" s="231">
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="285">
   <si>
     <t>FirstName</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>AssignmentName36207</t>
+  </si>
+  <si>
+    <t>PortfolioCourse40482</t>
+  </si>
+  <si>
+    <t>AssignmentName40482</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,6 +1081,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2122,11 +2134,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="228">
-        <v>279</v>
-      </c>
-      <c r="N2" t="s" s="229">
-        <v>280</v>
+      <c r="M2" t="s" s="232">
+        <v>283</v>
+      </c>
+      <c r="N2" t="s" s="233">
+        <v>284</v>
       </c>
       <c r="O2" t="s" s="230">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="315">
   <si>
     <t>FirstName</t>
   </si>
@@ -876,6 +876,96 @@
   </si>
   <si>
     <t>AssignmentName40482</t>
+  </si>
+  <si>
+    <t>PortfolioCourse87630</t>
+  </si>
+  <si>
+    <t>AssignmentName87630</t>
+  </si>
+  <si>
+    <t>PortfolioCourse71875</t>
+  </si>
+  <si>
+    <t>AssignmentName71875</t>
+  </si>
+  <si>
+    <t>PortfolioCourse86669</t>
+  </si>
+  <si>
+    <t>AssignmentName86669</t>
+  </si>
+  <si>
+    <t>PortfolioCourse16893</t>
+  </si>
+  <si>
+    <t>AssignmentName16893</t>
+  </si>
+  <si>
+    <t>PortfolioCourse88270</t>
+  </si>
+  <si>
+    <t>AssignmentName88270</t>
+  </si>
+  <si>
+    <t>PortfolioCourse88475</t>
+  </si>
+  <si>
+    <t>AssignmentName88475</t>
+  </si>
+  <si>
+    <t>PortfolioCourse73066</t>
+  </si>
+  <si>
+    <t>AssignmentName73066</t>
+  </si>
+  <si>
+    <t>PortfolioCourse56184</t>
+  </si>
+  <si>
+    <t>AssignmentName56184</t>
+  </si>
+  <si>
+    <t>PortfolioCourse53718</t>
+  </si>
+  <si>
+    <t>AssignmentName53718</t>
+  </si>
+  <si>
+    <t>PortfolioCourse90775</t>
+  </si>
+  <si>
+    <t>AssignmentName90775</t>
+  </si>
+  <si>
+    <t>PortfolioCourse84615</t>
+  </si>
+  <si>
+    <t>AssignmentName84615</t>
+  </si>
+  <si>
+    <t>PortfolioCourse40267</t>
+  </si>
+  <si>
+    <t>AssignmentName40267</t>
+  </si>
+  <si>
+    <t>PortfolioCourse44425</t>
+  </si>
+  <si>
+    <t>AssignmentName44425</t>
+  </si>
+  <si>
+    <t>PortfolioCourse52667</t>
+  </si>
+  <si>
+    <t>AssignmentName52667</t>
+  </si>
+  <si>
+    <t>PortfolioCourse47023</t>
+  </si>
+  <si>
+    <t>AssignmentName47023</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1081,6 +1171,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2134,11 +2314,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="232">
-        <v>283</v>
-      </c>
-      <c r="N2" t="s" s="233">
-        <v>284</v>
+      <c r="M2" t="s" s="262">
+        <v>313</v>
+      </c>
+      <c r="N2" t="s" s="263">
+        <v>314</v>
       </c>
       <c r="O2" t="s" s="230">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="339">
   <si>
     <t>FirstName</t>
   </si>
@@ -966,6 +966,78 @@
   </si>
   <si>
     <t>AssignmentName47023</t>
+  </si>
+  <si>
+    <t>PortfolioCourse32807</t>
+  </si>
+  <si>
+    <t>AssignmentName32807</t>
+  </si>
+  <si>
+    <t>PortfolioCourse73997</t>
+  </si>
+  <si>
+    <t>AssignmentName73997</t>
+  </si>
+  <si>
+    <t>PortfolioCourse96685</t>
+  </si>
+  <si>
+    <t>AssignmentName96685</t>
+  </si>
+  <si>
+    <t>PortfolioCourse76269</t>
+  </si>
+  <si>
+    <t>AssignmentName76269</t>
+  </si>
+  <si>
+    <t>PortfolioCourse46551</t>
+  </si>
+  <si>
+    <t>AssignmentName46551</t>
+  </si>
+  <si>
+    <t>PortfolioCourse25336</t>
+  </si>
+  <si>
+    <t>AssignmentName25336</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43278</t>
+  </si>
+  <si>
+    <t>AssignmentName43278</t>
+  </si>
+  <si>
+    <t>PortfolioCourse27069</t>
+  </si>
+  <si>
+    <t>AssignmentName27069</t>
+  </si>
+  <si>
+    <t>PortfolioCourse3299</t>
+  </si>
+  <si>
+    <t>AssignmentName3299</t>
+  </si>
+  <si>
+    <t>PortfolioCourse46413</t>
+  </si>
+  <si>
+    <t>AssignmentName46413</t>
+  </si>
+  <si>
+    <t>PortfolioCourse79489</t>
+  </si>
+  <si>
+    <t>AssignmentName79489</t>
+  </si>
+  <si>
+    <t>PortfolioCourse76160</t>
+  </si>
+  <si>
+    <t>AssignmentName76160</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1171,6 +1243,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2314,11 +2458,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="262">
-        <v>313</v>
-      </c>
-      <c r="N2" t="s" s="263">
-        <v>314</v>
+      <c r="M2" t="s" s="286">
+        <v>337</v>
+      </c>
+      <c r="N2" t="s" s="287">
+        <v>338</v>
       </c>
       <c r="O2" t="s" s="230">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="347">
   <si>
     <t>FirstName</t>
   </si>
@@ -1038,6 +1038,30 @@
   </si>
   <si>
     <t>AssignmentName76160</t>
+  </si>
+  <si>
+    <t>PortfolioCourse10342</t>
+  </si>
+  <si>
+    <t>AssignmentName10342</t>
+  </si>
+  <si>
+    <t>PortfolioCourse34300</t>
+  </si>
+  <si>
+    <t>AssignmentName34300</t>
+  </si>
+  <si>
+    <t>PortfolioCourse81536</t>
+  </si>
+  <si>
+    <t>AssignmentName81536</t>
+  </si>
+  <si>
+    <t>PortfolioCourse64587</t>
+  </si>
+  <si>
+    <t>AssignmentName64587</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1243,6 +1267,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2458,11 +2506,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="286">
-        <v>337</v>
-      </c>
-      <c r="N2" t="s" s="287">
-        <v>338</v>
+      <c r="M2" t="s" s="294">
+        <v>345</v>
+      </c>
+      <c r="N2" t="s" s="295">
+        <v>346</v>
       </c>
       <c r="O2" t="s" s="230">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="349">
   <si>
     <t>FirstName</t>
   </si>
@@ -1062,6 +1062,12 @@
   </si>
   <si>
     <t>AssignmentName64587</t>
+  </si>
+  <si>
+    <t>PortfolioCourse65242</t>
+  </si>
+  <si>
+    <t>AssignmentName65242</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1267,6 +1273,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2506,11 +2518,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="294">
-        <v>345</v>
-      </c>
-      <c r="N2" t="s" s="295">
-        <v>346</v>
+      <c r="M2" t="s" s="296">
+        <v>347</v>
+      </c>
+      <c r="N2" t="s" s="297">
+        <v>348</v>
       </c>
       <c r="O2" t="s" s="230">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="351">
   <si>
     <t>FirstName</t>
   </si>
@@ -1068,6 +1068,12 @@
   </si>
   <si>
     <t>AssignmentName65242</t>
+  </si>
+  <si>
+    <t>PortfolioCourse82107</t>
+  </si>
+  <si>
+    <t>AssignmentName82107</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1273,6 +1279,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2518,11 +2530,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="296">
-        <v>347</v>
-      </c>
-      <c r="N2" t="s" s="297">
-        <v>348</v>
+      <c r="M2" t="s" s="298">
+        <v>349</v>
+      </c>
+      <c r="N2" t="s" s="299">
+        <v>350</v>
       </c>
       <c r="O2" t="s" s="230">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="355">
   <si>
     <t>FirstName</t>
   </si>
@@ -1074,6 +1074,18 @@
   </si>
   <si>
     <t>AssignmentName82107</t>
+  </si>
+  <si>
+    <t>PortfolioCourse53610</t>
+  </si>
+  <si>
+    <t>AssignmentName53610</t>
+  </si>
+  <si>
+    <t>PortfolioCourse63512</t>
+  </si>
+  <si>
+    <t>AssignmentName63512</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,6 +1291,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2530,11 +2554,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="298">
-        <v>349</v>
-      </c>
-      <c r="N2" t="s" s="299">
-        <v>350</v>
+      <c r="M2" t="s" s="302">
+        <v>353</v>
+      </c>
+      <c r="N2" t="s" s="303">
+        <v>354</v>
       </c>
       <c r="O2" t="s" s="230">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="392">
   <si>
     <t>FirstName</t>
   </si>
@@ -1098,6 +1098,105 @@
   </si>
   <si>
     <t>AssignmentName786</t>
+  </si>
+  <si>
+    <t>PortfolioCourse48006</t>
+  </si>
+  <si>
+    <t>AssignmentName48006</t>
+  </si>
+  <si>
+    <t>FPK12School11938</t>
+  </si>
+  <si>
+    <t>FPK12Classroom99390</t>
+  </si>
+  <si>
+    <t>FPK12Section95248</t>
+  </si>
+  <si>
+    <t>36595</t>
+  </si>
+  <si>
+    <t>85167</t>
+  </si>
+  <si>
+    <t>19434</t>
+  </si>
+  <si>
+    <t>PortfolioCourse8014</t>
+  </si>
+  <si>
+    <t>AssignmentName8014</t>
+  </si>
+  <si>
+    <t>FPK12School85214</t>
+  </si>
+  <si>
+    <t>FPK12Classroom45292</t>
+  </si>
+  <si>
+    <t>FPK12Section56939</t>
+  </si>
+  <si>
+    <t>FPK12School79579</t>
+  </si>
+  <si>
+    <t>FPK12Classroom64465</t>
+  </si>
+  <si>
+    <t>FPK12Section41156</t>
+  </si>
+  <si>
+    <t>FPK12Section24141</t>
+  </si>
+  <si>
+    <t>43547</t>
+  </si>
+  <si>
+    <t>88452</t>
+  </si>
+  <si>
+    <t>87992</t>
+  </si>
+  <si>
+    <t>PortfolioCourse69974</t>
+  </si>
+  <si>
+    <t>AssignmentName69974</t>
+  </si>
+  <si>
+    <t>PortfolioCourse83655</t>
+  </si>
+  <si>
+    <t>FPK12School90662</t>
+  </si>
+  <si>
+    <t>FPK12Classroom78943</t>
+  </si>
+  <si>
+    <t>FPK12Section85096</t>
+  </si>
+  <si>
+    <t>FPK12Section64735</t>
+  </si>
+  <si>
+    <t>PortfolioCourse65424</t>
+  </si>
+  <si>
+    <t>AssignmentName65424</t>
+  </si>
+  <si>
+    <t>PortfolioCourse70289</t>
+  </si>
+  <si>
+    <t>AssignmentName70289</t>
+  </si>
+  <si>
+    <t>PortfolioCourse71163</t>
+  </si>
+  <si>
+    <t>AssignmentName71163</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1303,6 +1402,87 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2542,14 +2722,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="178">
-        <v>226</v>
-      </c>
-      <c r="B2" t="s" s="179">
-        <v>227</v>
-      </c>
-      <c r="C2" t="s" s="181">
-        <v>229</v>
+      <c r="A2" t="s" s="325">
+        <v>382</v>
+      </c>
+      <c r="B2" t="s" s="326">
+        <v>383</v>
+      </c>
+      <c r="C2" t="s" s="328">
+        <v>385</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -2578,14 +2758,14 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="306">
-        <v>357</v>
-      </c>
-      <c r="N2" t="s" s="307">
-        <v>358</v>
-      </c>
-      <c r="O2" t="s" s="230">
-        <v>281</v>
+      <c r="M2" t="s" s="333">
+        <v>390</v>
+      </c>
+      <c r="N2" t="s" s="334">
+        <v>391</v>
+      </c>
+      <c r="O2" t="s" s="324">
+        <v>381</v>
       </c>
       <c r="P2" t="s" s="231">
         <v>282</v>
@@ -2596,7 +2776,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>230</v>
+        <v>376</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -2610,7 +2790,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>377</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -2627,7 +2807,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="394">
   <si>
     <t>FirstName</t>
   </si>
@@ -1197,6 +1197,12 @@
   </si>
   <si>
     <t>AssignmentName71163</t>
+  </si>
+  <si>
+    <t>PortfolioCourse80865</t>
+  </si>
+  <si>
+    <t>AssignmentName80865</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1402,6 +1408,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2758,11 +2770,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="333">
-        <v>390</v>
-      </c>
-      <c r="N2" t="s" s="334">
-        <v>391</v>
+      <c r="M2" t="s" s="335">
+        <v>392</v>
+      </c>
+      <c r="N2" t="s" s="336">
+        <v>393</v>
       </c>
       <c r="O2" t="s" s="324">
         <v>381</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="400">
   <si>
     <t>FirstName</t>
   </si>
@@ -1203,6 +1203,24 @@
   </si>
   <si>
     <t>AssignmentName80865</t>
+  </si>
+  <si>
+    <t>PortfolioCourse66752</t>
+  </si>
+  <si>
+    <t>AssignmentName66752</t>
+  </si>
+  <si>
+    <t>PortfolioCourse18494</t>
+  </si>
+  <si>
+    <t>AssignmentName18494</t>
+  </si>
+  <si>
+    <t>PortfolioCourse72195</t>
+  </si>
+  <si>
+    <t>AssignmentName72195</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1408,6 +1426,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2770,11 +2806,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="335">
-        <v>392</v>
-      </c>
-      <c r="N2" t="s" s="336">
-        <v>393</v>
+      <c r="M2" t="s" s="341">
+        <v>398</v>
+      </c>
+      <c r="N2" t="s" s="342">
+        <v>399</v>
       </c>
       <c r="O2" t="s" s="324">
         <v>381</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="406">
   <si>
     <t>FirstName</t>
   </si>
@@ -1221,6 +1221,24 @@
   </si>
   <si>
     <t>AssignmentName72195</t>
+  </si>
+  <si>
+    <t>PortfolioCourse36115</t>
+  </si>
+  <si>
+    <t>AssignmentName36115</t>
+  </si>
+  <si>
+    <t>PortfolioCourse94562</t>
+  </si>
+  <si>
+    <t>AssignmentName94562</t>
+  </si>
+  <si>
+    <t>PortfolioCourse29865</t>
+  </si>
+  <si>
+    <t>AssignmentName29865</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,6 +1444,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2806,11 +2842,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="341">
-        <v>398</v>
-      </c>
-      <c r="N2" t="s" s="342">
-        <v>399</v>
+      <c r="M2" t="s" s="347">
+        <v>404</v>
+      </c>
+      <c r="N2" t="s" s="348">
+        <v>405</v>
       </c>
       <c r="O2" t="s" s="324">
         <v>381</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="422">
   <si>
     <t>FirstName</t>
   </si>
@@ -1239,6 +1239,54 @@
   </si>
   <si>
     <t>AssignmentName29865</t>
+  </si>
+  <si>
+    <t>PortfolioCourse73</t>
+  </si>
+  <si>
+    <t>AssignmentName73</t>
+  </si>
+  <si>
+    <t>PortfolioCourse86704</t>
+  </si>
+  <si>
+    <t>AssignmentName86704</t>
+  </si>
+  <si>
+    <t>PortfolioCourse5968</t>
+  </si>
+  <si>
+    <t>AssignmentName5968</t>
+  </si>
+  <si>
+    <t>PortfolioCourse18137</t>
+  </si>
+  <si>
+    <t>AssignmentName18137</t>
+  </si>
+  <si>
+    <t>PortfolioCourse11297</t>
+  </si>
+  <si>
+    <t>AssignmentName11297</t>
+  </si>
+  <si>
+    <t>PortfolioCourse32531</t>
+  </si>
+  <si>
+    <t>AssignmentName32531</t>
+  </si>
+  <si>
+    <t>PortfolioCourse26546</t>
+  </si>
+  <si>
+    <t>AssignmentName26546</t>
+  </si>
+  <si>
+    <t>PortfolioCourse91202</t>
+  </si>
+  <si>
+    <t>AssignmentName91202</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1444,6 +1492,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2842,11 +2938,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="347">
-        <v>404</v>
-      </c>
-      <c r="N2" t="s" s="348">
-        <v>405</v>
+      <c r="M2" t="s" s="363">
+        <v>420</v>
+      </c>
+      <c r="N2" t="s" s="364">
+        <v>421</v>
       </c>
       <c r="O2" t="s" s="324">
         <v>381</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="428">
   <si>
     <t>FirstName</t>
   </si>
@@ -1287,6 +1287,24 @@
   </si>
   <si>
     <t>AssignmentName91202</t>
+  </si>
+  <si>
+    <t>PortfolioCourse8388</t>
+  </si>
+  <si>
+    <t>AssignmentName8388</t>
+  </si>
+  <si>
+    <t>PortfolioCourse11105</t>
+  </si>
+  <si>
+    <t>AssignmentName11105</t>
+  </si>
+  <si>
+    <t>PortfolioCourse46805</t>
+  </si>
+  <si>
+    <t>AssignmentName46805</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="365">
+  <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1492,6 +1510,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2938,11 +2974,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="363">
-        <v>420</v>
-      </c>
-      <c r="N2" t="s" s="364">
-        <v>421</v>
+      <c r="M2" t="s" s="369">
+        <v>426</v>
+      </c>
+      <c r="N2" t="s" s="370">
+        <v>427</v>
       </c>
       <c r="O2" t="s" s="324">
         <v>381</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="436">
   <si>
     <t>FirstName</t>
   </si>
@@ -1305,6 +1305,30 @@
   </si>
   <si>
     <t>AssignmentName46805</t>
+  </si>
+  <si>
+    <t>PortfolioCourse23752</t>
+  </si>
+  <si>
+    <t>AssignmentName23752</t>
+  </si>
+  <si>
+    <t>PortfolioCourse22599</t>
+  </si>
+  <si>
+    <t>AssignmentName22599</t>
+  </si>
+  <si>
+    <t>PortfolioCourse35335</t>
+  </si>
+  <si>
+    <t>AssignmentName35335</t>
+  </si>
+  <si>
+    <t>PortfolioCourse37295</t>
+  </si>
+  <si>
+    <t>AssignmentName37295</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1510,6 +1534,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2974,11 +3022,11 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="369">
-        <v>426</v>
-      </c>
-      <c r="N2" t="s" s="370">
-        <v>427</v>
+      <c r="M2" t="s" s="377">
+        <v>434</v>
+      </c>
+      <c r="N2" t="s" s="378">
+        <v>435</v>
       </c>
       <c r="O2" t="s" s="324">
         <v>381</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="438">
   <si>
     <t>FirstName</t>
   </si>
@@ -1329,6 +1329,12 @@
   </si>
   <si>
     <t>AssignmentName37295</t>
+  </si>
+  <si>
+    <t>PortfolioCourse93825</t>
+  </si>
+  <si>
+    <t>AssignmentName93825</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1534,6 +1540,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -3028,11 +3040,11 @@
       <c r="N2" t="s" s="378">
         <v>435</v>
       </c>
-      <c r="O2" t="s" s="324">
-        <v>381</v>
-      </c>
-      <c r="P2" t="s" s="231">
-        <v>282</v>
+      <c r="O2" t="s" s="379">
+        <v>436</v>
+      </c>
+      <c r="P2" t="s" s="380">
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
   <si>
     <t>FirstName</t>
   </si>
@@ -409,6 +409,36 @@
   </si>
   <si>
     <t>AssignmentName54414</t>
+  </si>
+  <si>
+    <t>FPK12School57831</t>
+  </si>
+  <si>
+    <t>FPK12Classroom91891</t>
+  </si>
+  <si>
+    <t>FPK12Section54255</t>
+  </si>
+  <si>
+    <t>93991</t>
+  </si>
+  <si>
+    <t>76129</t>
+  </si>
+  <si>
+    <t>65687</t>
+  </si>
+  <si>
+    <t>PortfolioCourse89310</t>
+  </si>
+  <si>
+    <t>AssignmentName89310</t>
+  </si>
+  <si>
+    <t>PortfolioCourse97496</t>
+  </si>
+  <si>
+    <t>AssignmentName97496</t>
   </si>
 </sst>
 </file>
@@ -554,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,6 +644,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1166,14 +1217,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="72">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s" s="73">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s" s="74">
-        <v>121</v>
+      <c r="A2" t="s" s="79">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s" s="80">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s" s="81">
+        <v>131</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -1202,17 +1253,17 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="75">
-        <v>125</v>
-      </c>
-      <c r="N2" t="s" s="76">
-        <v>126</v>
-      </c>
-      <c r="O2" t="s" s="77">
-        <v>127</v>
-      </c>
-      <c r="P2" t="s" s="78">
-        <v>128</v>
+      <c r="M2" t="s" s="82">
+        <v>135</v>
+      </c>
+      <c r="N2" t="s" s="83">
+        <v>136</v>
+      </c>
+      <c r="O2" t="s" s="84">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s" s="85">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1220,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -1234,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -1251,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="143">
   <si>
     <t>FirstName</t>
   </si>
@@ -439,6 +439,18 @@
   </si>
   <si>
     <t>AssignmentName97496</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43630</t>
+  </si>
+  <si>
+    <t>AssignmentName43630</t>
+  </si>
+  <si>
+    <t>PortfolioCourse62144</t>
+  </si>
+  <si>
+    <t>AssignmentName62144</t>
   </si>
 </sst>
 </file>
@@ -584,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +656,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1253,17 +1277,17 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="82">
-        <v>135</v>
-      </c>
-      <c r="N2" t="s" s="83">
-        <v>136</v>
-      </c>
-      <c r="O2" t="s" s="84">
-        <v>137</v>
-      </c>
-      <c r="P2" t="s" s="85">
-        <v>138</v>
+      <c r="M2" t="s" s="86">
+        <v>139</v>
+      </c>
+      <c r="N2" t="s" s="87">
+        <v>140</v>
+      </c>
+      <c r="O2" t="s" s="88">
+        <v>141</v>
+      </c>
+      <c r="P2" t="s" s="89">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
   <si>
     <t>FirstName</t>
   </si>
@@ -451,6 +451,120 @@
   </si>
   <si>
     <t>AssignmentName62144</t>
+  </si>
+  <si>
+    <t>PortfolioCourse52199</t>
+  </si>
+  <si>
+    <t>AssignmentName52199</t>
+  </si>
+  <si>
+    <t>PortfolioCourse78616</t>
+  </si>
+  <si>
+    <t>AssignmentName78616</t>
+  </si>
+  <si>
+    <t>PortfolioCourse74914</t>
+  </si>
+  <si>
+    <t>AssignmentName74914</t>
+  </si>
+  <si>
+    <t>PortfolioCourse89115</t>
+  </si>
+  <si>
+    <t>AssignmentName89115</t>
+  </si>
+  <si>
+    <t>PortfolioCourse59188</t>
+  </si>
+  <si>
+    <t>AssignmentName59188</t>
+  </si>
+  <si>
+    <t>PortfolioCourse99017</t>
+  </si>
+  <si>
+    <t>AssignmentName99017</t>
+  </si>
+  <si>
+    <t>PortfolioCourse37789</t>
+  </si>
+  <si>
+    <t>AssignmentName37789</t>
+  </si>
+  <si>
+    <t>PortfolioCourse62136</t>
+  </si>
+  <si>
+    <t>AssignmentName62136</t>
+  </si>
+  <si>
+    <t>PortfolioCourse15149</t>
+  </si>
+  <si>
+    <t>AssignmentName15149</t>
+  </si>
+  <si>
+    <t>PortfolioCourse78227</t>
+  </si>
+  <si>
+    <t>AssignmentName78227</t>
+  </si>
+  <si>
+    <t>PortfolioCourse97116</t>
+  </si>
+  <si>
+    <t>AssignmentName97116</t>
+  </si>
+  <si>
+    <t>PortfolioCourse1051</t>
+  </si>
+  <si>
+    <t>AssignmentName1051</t>
+  </si>
+  <si>
+    <t>PortfolioCourse80087</t>
+  </si>
+  <si>
+    <t>AssignmentName80087</t>
+  </si>
+  <si>
+    <t>PortfolioCourse79499</t>
+  </si>
+  <si>
+    <t>AssignmentName79499</t>
+  </si>
+  <si>
+    <t>PortfolioCourse96688</t>
+  </si>
+  <si>
+    <t>AssignmentName96688</t>
+  </si>
+  <si>
+    <t>PortfolioCourse14034</t>
+  </si>
+  <si>
+    <t>PortfolioCourse39960</t>
+  </si>
+  <si>
+    <t>AssignmentName39960</t>
+  </si>
+  <si>
+    <t>PortfolioCourse50750</t>
+  </si>
+  <si>
+    <t>AssignmentName50750</t>
+  </si>
+  <si>
+    <t>PortfolioCourse89700</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43208</t>
+  </si>
+  <si>
+    <t>PortfolioCourse15482</t>
   </si>
 </sst>
 </file>
@@ -596,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,6 +770,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1277,17 +1505,17 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="86">
-        <v>139</v>
-      </c>
-      <c r="N2" t="s" s="87">
-        <v>140</v>
-      </c>
-      <c r="O2" t="s" s="88">
-        <v>141</v>
-      </c>
-      <c r="P2" t="s" s="89">
-        <v>142</v>
+      <c r="M2" t="s" s="127">
+        <v>180</v>
+      </c>
+      <c r="N2" t="s" s="91">
+        <v>144</v>
+      </c>
+      <c r="O2" t="s" s="123">
+        <v>176</v>
+      </c>
+      <c r="P2" t="s" s="124">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="192">
   <si>
     <t>FirstName</t>
   </si>
@@ -565,6 +565,39 @@
   </si>
   <si>
     <t>PortfolioCourse15482</t>
+  </si>
+  <si>
+    <t>FPK12School52778</t>
+  </si>
+  <si>
+    <t>FPK12School67577</t>
+  </si>
+  <si>
+    <t>FPK12Classroom25206</t>
+  </si>
+  <si>
+    <t>FPK12Section2582</t>
+  </si>
+  <si>
+    <t>54281</t>
+  </si>
+  <si>
+    <t>34455</t>
+  </si>
+  <si>
+    <t>34197</t>
+  </si>
+  <si>
+    <t>PortfolioCourse59437</t>
+  </si>
+  <si>
+    <t>AssignmentName59437</t>
+  </si>
+  <si>
+    <t>PortfolioCourse66928</t>
+  </si>
+  <si>
+    <t>AssignmentName66928</t>
   </si>
 </sst>
 </file>
@@ -710,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,6 +803,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1469,14 +1526,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="79">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s" s="80">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s" s="81">
-        <v>131</v>
+      <c r="A2" t="s" s="129">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s" s="130">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s" s="131">
+        <v>184</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -1505,17 +1562,17 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="127">
-        <v>180</v>
-      </c>
-      <c r="N2" t="s" s="91">
-        <v>144</v>
-      </c>
-      <c r="O2" t="s" s="123">
-        <v>176</v>
-      </c>
-      <c r="P2" t="s" s="124">
-        <v>177</v>
+      <c r="M2" t="s" s="132">
+        <v>188</v>
+      </c>
+      <c r="N2" t="s" s="133">
+        <v>189</v>
+      </c>
+      <c r="O2" t="s" s="134">
+        <v>190</v>
+      </c>
+      <c r="P2" t="s" s="135">
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1523,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -1537,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -1554,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="198">
   <si>
     <t>FirstName</t>
   </si>
@@ -598,6 +598,24 @@
   </si>
   <si>
     <t>AssignmentName66928</t>
+  </si>
+  <si>
+    <t>PortfolioCourse9313</t>
+  </si>
+  <si>
+    <t>AssignmentName9313</t>
+  </si>
+  <si>
+    <t>PortfolioCourse62940</t>
+  </si>
+  <si>
+    <t>AssignmentName62940</t>
+  </si>
+  <si>
+    <t>PortfolioCourse11658</t>
+  </si>
+  <si>
+    <t>AssignmentName11658</t>
   </si>
 </sst>
 </file>
@@ -743,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,6 +821,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1562,17 +1598,17 @@
       <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s" s="132">
-        <v>188</v>
-      </c>
-      <c r="N2" t="s" s="133">
-        <v>189</v>
-      </c>
-      <c r="O2" t="s" s="134">
-        <v>190</v>
-      </c>
-      <c r="P2" t="s" s="135">
-        <v>191</v>
+      <c r="M2" t="s" s="138">
+        <v>194</v>
+      </c>
+      <c r="N2" t="s" s="139">
+        <v>195</v>
+      </c>
+      <c r="O2" t="s" s="140">
+        <v>196</v>
+      </c>
+      <c r="P2" t="s" s="141">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB361212-3A87-49CE-9C32-CA89C666CFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FB4A8D-FBBF-4198-BF04-431BAC63CCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
   <si>
     <t>FirstName</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>ditrictadmin</t>
-  </si>
-  <si>
     <t>@Abcd1234</t>
   </si>
   <si>
@@ -135,201 +129,15 @@
     <t>MultiAssignmentName</t>
   </si>
   <si>
-    <t>43547</t>
-  </si>
-  <si>
-    <t>88452</t>
-  </si>
-  <si>
-    <t>87992</t>
-  </si>
-  <si>
-    <t>FPK12School90662</t>
-  </si>
-  <si>
-    <t>FPK12Classroom78943</t>
-  </si>
-  <si>
-    <t>FPK12Section64735</t>
-  </si>
-  <si>
-    <t>PortfolioCourse37295</t>
-  </si>
-  <si>
-    <t>AssignmentName37295</t>
-  </si>
-  <si>
-    <t>PortfolioCourse93825</t>
-  </si>
-  <si>
-    <t>AssignmentName93825</t>
-  </si>
-  <si>
-    <t>FPK12School37329</t>
-  </si>
-  <si>
-    <t>FPK12Classroom73671</t>
-  </si>
-  <si>
-    <t>FPK12Section31330</t>
-  </si>
-  <si>
     <t>testdemo</t>
   </si>
   <si>
     <t>test1</t>
   </si>
   <si>
-    <t>76366</t>
-  </si>
-  <si>
-    <t>18970</t>
-  </si>
-  <si>
-    <t>10486</t>
-  </si>
-  <si>
-    <t>FPK12School72183</t>
-  </si>
-  <si>
-    <t>FPK12School83515</t>
-  </si>
-  <si>
-    <t>FPK12Classroom23265</t>
-  </si>
-  <si>
-    <t>FPK12Section31680</t>
-  </si>
-  <si>
-    <t>FPK12Section1734</t>
-  </si>
-  <si>
-    <t>FPK12Section11607</t>
-  </si>
-  <si>
-    <t>FPK12Section55083</t>
-  </si>
-  <si>
-    <t>FPK12Section6266</t>
-  </si>
-  <si>
-    <t>FPK12Section79257</t>
-  </si>
-  <si>
-    <t>FPK12School33053</t>
-  </si>
-  <si>
-    <t>FPK12School69858</t>
-  </si>
-  <si>
-    <t>FPK12Classroom36364</t>
-  </si>
-  <si>
-    <t>FPK12Section908</t>
-  </si>
-  <si>
-    <t>FPK12School10024</t>
-  </si>
-  <si>
-    <t>FPK12Classroom74207</t>
-  </si>
-  <si>
-    <t>FPK12Section16818</t>
-  </si>
-  <si>
-    <t>25019</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>FPK12School56456</t>
-  </si>
-  <si>
-    <t>FPK12Classroom32650</t>
-  </si>
-  <si>
-    <t>FPK12Section81398</t>
-  </si>
-  <si>
-    <t>FPK12School51542</t>
-  </si>
-  <si>
-    <t>FPK12Classroom9273</t>
-  </si>
-  <si>
-    <t>FPK12Section43057</t>
-  </si>
-  <si>
-    <t>52547</t>
-  </si>
-  <si>
-    <t>84868</t>
-  </si>
-  <si>
-    <t>98062</t>
-  </si>
-  <si>
-    <t>PortfolioCourse23993</t>
-  </si>
-  <si>
-    <t>FPK12School69495</t>
-  </si>
-  <si>
-    <t>FPK12Classroom29960</t>
-  </si>
-  <si>
-    <t>FPK12Section57919</t>
-  </si>
-  <si>
-    <t>22691</t>
-  </si>
-  <si>
-    <t>FPK12School61599</t>
-  </si>
-  <si>
-    <t>FPK12Classroom96249</t>
-  </si>
-  <si>
-    <t>FPK12Section95837</t>
-  </si>
-  <si>
-    <t>FPK12Section75805</t>
-  </si>
-  <si>
-    <t>FPK12Section68595</t>
-  </si>
-  <si>
-    <t>FPK12Section75378</t>
-  </si>
-  <si>
-    <t>FPK12Section46588</t>
-  </si>
-  <si>
-    <t>FPK12Section12342</t>
-  </si>
-  <si>
-    <t>96126</t>
-  </si>
-  <si>
-    <t>FPK12School16307</t>
-  </si>
-  <si>
-    <t>FPK12Classroom99350</t>
-  </si>
-  <si>
-    <t>FPK12Section73174</t>
-  </si>
-  <si>
-    <t>43867</t>
-  </si>
-  <si>
-    <t>50624</t>
-  </si>
-  <si>
-    <t>PortfolioCourse44801</t>
-  </si>
-  <si>
     <t>AssignmentName44801</t>
   </si>
   <si>
@@ -351,225 +159,6 @@
     <t>PortfolioCourse94545</t>
   </si>
   <si>
-    <t>FPK12School20775</t>
-  </si>
-  <si>
-    <t>FPK12Classroom44958</t>
-  </si>
-  <si>
-    <t>FPK12Section92521</t>
-  </si>
-  <si>
-    <t>12994</t>
-  </si>
-  <si>
-    <t>17596</t>
-  </si>
-  <si>
-    <t>73127</t>
-  </si>
-  <si>
-    <t>PortfolioCourse48023</t>
-  </si>
-  <si>
-    <t>AssignmentName48023</t>
-  </si>
-  <si>
-    <t>PortfolioCourse60720</t>
-  </si>
-  <si>
-    <t>AssignmentName60720</t>
-  </si>
-  <si>
-    <t>FPK12School11342</t>
-  </si>
-  <si>
-    <t>FPK12Classroom36811</t>
-  </si>
-  <si>
-    <t>FPK12Section85345</t>
-  </si>
-  <si>
-    <t>99780</t>
-  </si>
-  <si>
-    <t>42966</t>
-  </si>
-  <si>
-    <t>98457</t>
-  </si>
-  <si>
-    <t>PortfolioCourse30862</t>
-  </si>
-  <si>
-    <t>AssignmentName30862</t>
-  </si>
-  <si>
-    <t>PortfolioCourse54414</t>
-  </si>
-  <si>
-    <t>AssignmentName54414</t>
-  </si>
-  <si>
-    <t>FPK12School57831</t>
-  </si>
-  <si>
-    <t>FPK12Classroom91891</t>
-  </si>
-  <si>
-    <t>FPK12Section54255</t>
-  </si>
-  <si>
-    <t>93991</t>
-  </si>
-  <si>
-    <t>76129</t>
-  </si>
-  <si>
-    <t>65687</t>
-  </si>
-  <si>
-    <t>PortfolioCourse89310</t>
-  </si>
-  <si>
-    <t>AssignmentName89310</t>
-  </si>
-  <si>
-    <t>PortfolioCourse97496</t>
-  </si>
-  <si>
-    <t>AssignmentName97496</t>
-  </si>
-  <si>
-    <t>PortfolioCourse43630</t>
-  </si>
-  <si>
-    <t>AssignmentName43630</t>
-  </si>
-  <si>
-    <t>PortfolioCourse62144</t>
-  </si>
-  <si>
-    <t>AssignmentName62144</t>
-  </si>
-  <si>
-    <t>PortfolioCourse52199</t>
-  </si>
-  <si>
-    <t>AssignmentName52199</t>
-  </si>
-  <si>
-    <t>PortfolioCourse78616</t>
-  </si>
-  <si>
-    <t>AssignmentName78616</t>
-  </si>
-  <si>
-    <t>PortfolioCourse74914</t>
-  </si>
-  <si>
-    <t>AssignmentName74914</t>
-  </si>
-  <si>
-    <t>PortfolioCourse89115</t>
-  </si>
-  <si>
-    <t>AssignmentName89115</t>
-  </si>
-  <si>
-    <t>PortfolioCourse59188</t>
-  </si>
-  <si>
-    <t>AssignmentName59188</t>
-  </si>
-  <si>
-    <t>PortfolioCourse99017</t>
-  </si>
-  <si>
-    <t>AssignmentName99017</t>
-  </si>
-  <si>
-    <t>PortfolioCourse37789</t>
-  </si>
-  <si>
-    <t>AssignmentName37789</t>
-  </si>
-  <si>
-    <t>PortfolioCourse62136</t>
-  </si>
-  <si>
-    <t>AssignmentName62136</t>
-  </si>
-  <si>
-    <t>PortfolioCourse15149</t>
-  </si>
-  <si>
-    <t>AssignmentName15149</t>
-  </si>
-  <si>
-    <t>PortfolioCourse78227</t>
-  </si>
-  <si>
-    <t>AssignmentName78227</t>
-  </si>
-  <si>
-    <t>PortfolioCourse97116</t>
-  </si>
-  <si>
-    <t>AssignmentName97116</t>
-  </si>
-  <si>
-    <t>PortfolioCourse1051</t>
-  </si>
-  <si>
-    <t>AssignmentName1051</t>
-  </si>
-  <si>
-    <t>PortfolioCourse80087</t>
-  </si>
-  <si>
-    <t>AssignmentName80087</t>
-  </si>
-  <si>
-    <t>PortfolioCourse79499</t>
-  </si>
-  <si>
-    <t>AssignmentName79499</t>
-  </si>
-  <si>
-    <t>PortfolioCourse96688</t>
-  </si>
-  <si>
-    <t>AssignmentName96688</t>
-  </si>
-  <si>
-    <t>PortfolioCourse14034</t>
-  </si>
-  <si>
-    <t>PortfolioCourse39960</t>
-  </si>
-  <si>
-    <t>AssignmentName39960</t>
-  </si>
-  <si>
-    <t>PortfolioCourse50750</t>
-  </si>
-  <si>
-    <t>AssignmentName50750</t>
-  </si>
-  <si>
-    <t>PortfolioCourse89700</t>
-  </si>
-  <si>
-    <t>PortfolioCourse43208</t>
-  </si>
-  <si>
-    <t>PortfolioCourse15482</t>
-  </si>
-  <si>
-    <t>FPK12School52778</t>
-  </si>
-  <si>
     <t>FPK12School67577</t>
   </si>
   <si>
@@ -588,34 +177,55 @@
     <t>34197</t>
   </si>
   <si>
-    <t>PortfolioCourse59437</t>
-  </si>
-  <si>
-    <t>AssignmentName59437</t>
-  </si>
-  <si>
-    <t>PortfolioCourse66928</t>
-  </si>
-  <si>
-    <t>AssignmentName66928</t>
-  </si>
-  <si>
-    <t>PortfolioCourse9313</t>
-  </si>
-  <si>
-    <t>AssignmentName9313</t>
-  </si>
-  <si>
-    <t>PortfolioCourse62940</t>
-  </si>
-  <si>
-    <t>AssignmentName62940</t>
-  </si>
-  <si>
     <t>PortfolioCourse11658</t>
   </si>
   <si>
     <t>AssignmentName11658</t>
+  </si>
+  <si>
+    <t>PortfolioCourse74941</t>
+  </si>
+  <si>
+    <t>AssignmentName74941</t>
+  </si>
+  <si>
+    <t>fpk12district</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>FPK12School27994</t>
+  </si>
+  <si>
+    <t>FPK12School22194</t>
+  </si>
+  <si>
+    <t>FPK12Classroom36773</t>
+  </si>
+  <si>
+    <t>FPK12Classroom55796</t>
+  </si>
+  <si>
+    <t>FPK12Section35207</t>
+  </si>
+  <si>
+    <t>FPK12Section33345</t>
+  </si>
+  <si>
+    <t>FPK12Section42837</t>
+  </si>
+  <si>
+    <t>FPK12Section79971</t>
+  </si>
+  <si>
+    <t>24159</t>
+  </si>
+  <si>
+    <t>76961</t>
+  </si>
+  <si>
+    <t>33718</t>
   </si>
 </sst>
 </file>
@@ -623,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +273,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -761,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,341 +438,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1489,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1531,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>6</v>
@@ -1540,48 +826,48 @@
         <v>8</v>
       </c>
       <c r="J1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="129">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s" s="130">
-        <v>183</v>
-      </c>
-      <c r="C2" t="s" s="131">
-        <v>184</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="A2" t="s" s="25">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s" s="27">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s" s="31">
+        <v>64</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1370</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13">
-        <v>1323</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>7</v>
@@ -1590,53 +876,53 @@
         <v>2024</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s" s="138">
-        <v>194</v>
-      </c>
-      <c r="N2" t="s" s="139">
-        <v>195</v>
-      </c>
-      <c r="O2" t="s" s="140">
-        <v>196</v>
-      </c>
-      <c r="P2" t="s" s="141">
-        <v>197</v>
+        <v>29</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1323</v>
+        <v>65</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1370</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1323</v>
+        <v>66</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1370</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1644,16 +930,16 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1323</v>
+        <v>67</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1370</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1671,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A90D03-19EB-49F1-81E9-253F7865358E}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1709,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>6</v>
@@ -1718,39 +1004,39 @@
         <v>8</v>
       </c>
       <c r="J1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="61">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s" s="62">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s" s="63">
-        <v>105</v>
+      <c r="A2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F2" s="13">
         <v>2</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>7</v>
@@ -1759,19 +1045,19 @@
         <v>2024</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s" s="64">
-        <v>108</v>
-      </c>
-      <c r="N2" t="s" s="60">
-        <v>102</v>
+        <v>29</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1783,16 +1069,16 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="F3" s="13">
         <v>2</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1805,16 +1091,16 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F4" s="13">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1828,13 +1114,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="F5" s="13">
         <v>2</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1903,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>6</v>
@@ -1912,37 +1198,37 @@
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>242</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>7</v>
@@ -1951,13 +1237,13 @@
         <v>2024</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -1966,16 +1252,16 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
         <v>242</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1989,16 +1275,16 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>242</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2012,16 +1298,16 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>242</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>FirstName</t>
   </si>
@@ -262,6 +262,36 @@
   </si>
   <si>
     <t>AssignmentName30246</t>
+  </si>
+  <si>
+    <t>FPK12School88248</t>
+  </si>
+  <si>
+    <t>FPK12Classroom57184</t>
+  </si>
+  <si>
+    <t>FPK12Section11899</t>
+  </si>
+  <si>
+    <t>80353</t>
+  </si>
+  <si>
+    <t>74991</t>
+  </si>
+  <si>
+    <t>16284</t>
+  </si>
+  <si>
+    <t>PortfolioCourse53244</t>
+  </si>
+  <si>
+    <t>AssignmentName53244</t>
+  </si>
+  <si>
+    <t>PortfolioCourse96563</t>
+  </si>
+  <si>
+    <t>AssignmentName96563</t>
   </si>
 </sst>
 </file>
@@ -413,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,6 +509,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -911,14 +962,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="34">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s" s="35">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s" s="36">
-        <v>72</v>
+      <c r="A2" t="s" s="41">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s" s="42">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s" s="43">
+        <v>82</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>54</v>
@@ -947,17 +998,17 @@
       <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s" s="37">
-        <v>76</v>
-      </c>
-      <c r="N2" t="s" s="38">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="P2" t="s" s="40">
-        <v>79</v>
+      <c r="M2" t="s" s="44">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s" s="45">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="46">
+        <v>88</v>
+      </c>
+      <c r="P2" t="s" s="47">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -965,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F3" s="23">
         <v>1370</v>
@@ -979,7 +1030,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F4" s="23">
         <v>1370</v>
@@ -996,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F5" s="23">
         <v>1370</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="100">
   <si>
     <t>FirstName</t>
   </si>
@@ -292,6 +292,36 @@
   </si>
   <si>
     <t>AssignmentName96563</t>
+  </si>
+  <si>
+    <t>FPK12School20697</t>
+  </si>
+  <si>
+    <t>FPK12Classroom2863</t>
+  </si>
+  <si>
+    <t>FPK12Section181</t>
+  </si>
+  <si>
+    <t>66515</t>
+  </si>
+  <si>
+    <t>57596</t>
+  </si>
+  <si>
+    <t>27112</t>
+  </si>
+  <si>
+    <t>PortfolioCourse66474</t>
+  </si>
+  <si>
+    <t>AssignmentName66474</t>
+  </si>
+  <si>
+    <t>PortfolioCourse60888</t>
+  </si>
+  <si>
+    <t>AssignmentName60888</t>
   </si>
 </sst>
 </file>
@@ -443,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,6 +539,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -962,14 +1013,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="41">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s" s="42">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s" s="43">
-        <v>82</v>
+      <c r="A2" t="s" s="48">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s" s="49">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s" s="50">
+        <v>92</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>54</v>
@@ -998,17 +1049,17 @@
       <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s" s="44">
-        <v>86</v>
-      </c>
-      <c r="N2" t="s" s="45">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s" s="46">
-        <v>88</v>
-      </c>
-      <c r="P2" t="s" s="47">
-        <v>89</v>
+      <c r="M2" t="s" s="51">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s" s="52">
+        <v>97</v>
+      </c>
+      <c r="O2" t="s" s="53">
+        <v>98</v>
+      </c>
+      <c r="P2" t="s" s="54">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1016,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F3" s="23">
         <v>1370</v>
@@ -1030,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F4" s="23">
         <v>1370</v>
@@ -1047,7 +1098,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F5" s="23">
         <v>1370</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087702A2-3E5F-46FF-B594-93E5F36AD7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7D7335-B84D-400D-9A5C-BE96D3996768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>FirstName</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Grade 1</t>
   </si>
   <si>
-    <t>Assisted Reading</t>
-  </si>
-  <si>
     <t>Grade 5</t>
   </si>
   <si>
@@ -156,172 +153,70 @@
     <t>PortfolioCourse94545</t>
   </si>
   <si>
-    <t>FPK12School57831</t>
-  </si>
-  <si>
-    <t>FPK12Classroom91891</t>
-  </si>
-  <si>
-    <t>FPK12Section54255</t>
-  </si>
-  <si>
-    <t>93991</t>
-  </si>
-  <si>
-    <t>76129</t>
-  </si>
-  <si>
-    <t>65687</t>
-  </si>
-  <si>
-    <t>PortfolioCourse43630</t>
-  </si>
-  <si>
-    <t>AssignmentName43630</t>
-  </si>
-  <si>
-    <t>PortfolioCourse62144</t>
-  </si>
-  <si>
-    <t>AssignmentName62144</t>
-  </si>
-  <si>
     <t>fpk12district</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>FPK12School87545</t>
-  </si>
-  <si>
-    <t>FPK12Classroom2580</t>
-  </si>
-  <si>
-    <t>FPK12Section9597</t>
-  </si>
-  <si>
-    <t>54240</t>
-  </si>
-  <si>
-    <t>5183</t>
-  </si>
-  <si>
-    <t>66594</t>
-  </si>
-  <si>
-    <t>PortfolioCourse84497</t>
-  </si>
-  <si>
-    <t>FPK12School59509</t>
-  </si>
-  <si>
-    <t>FPK12Classroom71003</t>
-  </si>
-  <si>
-    <t>FPK12Section63572</t>
-  </si>
-  <si>
-    <t>FPK12School90383</t>
-  </si>
-  <si>
-    <t>FPK12Classroom58297</t>
-  </si>
-  <si>
-    <t>FPK12Section58546</t>
-  </si>
-  <si>
-    <t>25615</t>
-  </si>
-  <si>
-    <t>FPK12School17809</t>
-  </si>
-  <si>
-    <t>FPK12Classroom64316</t>
-  </si>
-  <si>
-    <t>FPK12Section56742</t>
-  </si>
-  <si>
-    <t>70063</t>
-  </si>
-  <si>
-    <t>74900</t>
-  </si>
-  <si>
-    <t>79796</t>
-  </si>
-  <si>
-    <t>PortfolioCourse60994</t>
-  </si>
-  <si>
-    <t>AssignmentName60994</t>
-  </si>
-  <si>
-    <t>PortfolioCourse30246</t>
-  </si>
-  <si>
-    <t>AssignmentName30246</t>
-  </si>
-  <si>
-    <t>FPK12School88248</t>
-  </si>
-  <si>
-    <t>FPK12Classroom57184</t>
-  </si>
-  <si>
-    <t>FPK12Section11899</t>
-  </si>
-  <si>
-    <t>80353</t>
-  </si>
-  <si>
-    <t>74991</t>
-  </si>
-  <si>
-    <t>16284</t>
-  </si>
-  <si>
-    <t>PortfolioCourse53244</t>
-  </si>
-  <si>
-    <t>AssignmentName53244</t>
-  </si>
-  <si>
-    <t>PortfolioCourse96563</t>
-  </si>
-  <si>
-    <t>AssignmentName96563</t>
-  </si>
-  <si>
-    <t>FPK12School20697</t>
-  </si>
-  <si>
-    <t>FPK12Classroom2863</t>
-  </si>
-  <si>
-    <t>FPK12Section181</t>
-  </si>
-  <si>
-    <t>66515</t>
-  </si>
-  <si>
-    <t>57596</t>
-  </si>
-  <si>
-    <t>27112</t>
-  </si>
-  <si>
-    <t>PortfolioCourse66474</t>
-  </si>
-  <si>
-    <t>AssignmentName66474</t>
-  </si>
-  <si>
-    <t>PortfolioCourse60888</t>
-  </si>
-  <si>
-    <t>AssignmentName60888</t>
+    <t>FPK12School15847</t>
+  </si>
+  <si>
+    <t>FPK12Classroom9904</t>
+  </si>
+  <si>
+    <t>FPK12Section13741</t>
+  </si>
+  <si>
+    <t>4761</t>
+  </si>
+  <si>
+    <t>55534</t>
+  </si>
+  <si>
+    <t>12407</t>
+  </si>
+  <si>
+    <t>PortfolioCourse12744</t>
+  </si>
+  <si>
+    <t>AssignmentName12744</t>
+  </si>
+  <si>
+    <t>PortfolioCourse69451</t>
+  </si>
+  <si>
+    <t>AssignmentName69451</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>FPK12School99286</t>
+  </si>
+  <si>
+    <t>FPK12Classroom52763</t>
+  </si>
+  <si>
+    <t>FPK12Section22176</t>
+  </si>
+  <si>
+    <t>96956</t>
+  </si>
+  <si>
+    <t>40832</t>
+  </si>
+  <si>
+    <t>94805</t>
+  </si>
+  <si>
+    <t>PortfolioCourse9689</t>
+  </si>
+  <si>
+    <t>AssignmentName9689</t>
+  </si>
+  <si>
+    <t>FPK12School20611</t>
   </si>
 </sst>
 </file>
@@ -329,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +271,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1E88E5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -403,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -462,6 +363,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -473,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,97 +452,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,33 +841,33 @@
         <v>25</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="48">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s" s="49">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s" s="50">
-        <v>92</v>
+      <c r="A2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F2" s="23">
         <v>1370</v>
@@ -1044,22 +885,22 @@
         <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s" s="51">
-        <v>96</v>
-      </c>
-      <c r="N2" t="s" s="52">
-        <v>97</v>
-      </c>
-      <c r="O2" t="s" s="53">
-        <v>98</v>
-      </c>
-      <c r="P2" t="s" s="54">
-        <v>99</v>
+      <c r="M2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1067,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F3" s="23">
         <v>1370</v>
@@ -1081,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F4" s="23">
         <v>1370</v>
@@ -1098,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F5" s="23">
         <v>1370</v>
@@ -1183,19 +1024,19 @@
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="F2" s="13">
         <v>2</v>
@@ -1213,16 +1054,16 @@
         <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1237,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="13">
         <v>2</v>
@@ -1259,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="13">
         <v>2</v>
@@ -1279,7 +1120,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="13">
         <v>2</v>
@@ -1314,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,9 +1170,8 @@
     <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
     <col min="7" max="7" customWidth="true" width="11.5546875"/>
     <col min="8" max="8" customWidth="true" style="1" width="38.44140625"/>
-    <col min="11" max="11" customWidth="true" width="14.21875"/>
-    <col min="12" max="12" customWidth="true" width="15.0"/>
-    <col min="13" max="13" customWidth="true" width="18.33203125"/>
+    <col min="10" max="10" customWidth="true" width="15.0"/>
+    <col min="12" max="13" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1362,26 +1202,26 @@
       <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>18</v>
+      <c r="A2" t="s" s="31">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s" s="27">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s" s="28">
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
@@ -1401,16 +1241,21 @@
       <c r="I2" s="13">
         <v>2024</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="3"/>
+      <c r="L2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s" s="29">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s" s="30">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -1420,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2">
         <v>242</v>
@@ -1443,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2">
         <v>242</v>
@@ -1466,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2">
         <v>242</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7D7335-B84D-400D-9A5C-BE96D3996768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB526C60-5A1A-4818-AC62-EB1F17B9DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>FirstName</t>
   </si>
@@ -66,30 +66,9 @@
     <t>fpk12student</t>
   </si>
   <si>
-    <t>fpadmin</t>
-  </si>
-  <si>
     <t>qa</t>
   </si>
   <si>
-    <t>FPK12School6781</t>
-  </si>
-  <si>
-    <t>FPK12Classroom3937</t>
-  </si>
-  <si>
-    <t>FPK12Section144</t>
-  </si>
-  <si>
-    <t>5720</t>
-  </si>
-  <si>
-    <t>6428</t>
-  </si>
-  <si>
-    <t>2613</t>
-  </si>
-  <si>
     <t>TestName</t>
   </si>
   <si>
@@ -102,9 +81,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>Grade 1</t>
-  </si>
-  <si>
     <t>Grade 5</t>
   </si>
   <si>
@@ -190,41 +166,13 @@
   </si>
   <si>
     <t>Mathematics</t>
-  </si>
-  <si>
-    <t>FPK12School99286</t>
-  </si>
-  <si>
-    <t>FPK12Classroom52763</t>
-  </si>
-  <si>
-    <t>FPK12Section22176</t>
-  </si>
-  <si>
-    <t>96956</t>
-  </si>
-  <si>
-    <t>40832</t>
-  </si>
-  <si>
-    <t>94805</t>
-  </si>
-  <si>
-    <t>PortfolioCourse9689</t>
-  </si>
-  <si>
-    <t>AssignmentName9689</t>
-  </si>
-  <si>
-    <t>FPK12School20611</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,31 +181,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -278,18 +205,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -304,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -324,17 +245,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -373,19 +283,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,90 +295,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -782,125 +643,125 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="23.5546875"/>
-    <col min="3" max="3" customWidth="true" width="24.77734375"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
-    <col min="8" max="8" customWidth="true" width="31.5546875"/>
-    <col min="10" max="10" customWidth="true" width="19.77734375"/>
-    <col min="11" max="11" customWidth="true" width="15.0"/>
-    <col min="12" max="12" customWidth="true" width="18.33203125"/>
-    <col min="13" max="13" customWidth="true" width="18.88671875"/>
-    <col min="14" max="14" customWidth="true" width="20.109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125"/>
-    <col min="16" max="16" customWidth="true" width="21.0"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="O1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1370</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="P2" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="23">
-        <v>1370</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2024</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -908,12 +769,12 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="23">
+        <v>40</v>
+      </c>
+      <c r="F3" s="15">
         <v>1370</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -922,36 +783,36 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="23">
+        <v>41</v>
+      </c>
+      <c r="F4" s="15">
         <v>1370</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="23">
+        <v>42</v>
+      </c>
+      <c r="F5" s="15">
         <v>1370</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,184 +830,184 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.44140625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.6640625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.77734375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.77734375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="27.5546875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.6640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.33203125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.0"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2024</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="13">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="13">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="13">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8">
         <v>2</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1155,191 +1016,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="10" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" customWidth="true" width="11.5546875"/>
-    <col min="8" max="8" customWidth="true" style="1" width="38.44140625"/>
-    <col min="10" max="10" customWidth="true" width="15.0"/>
-    <col min="12" max="13" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="O1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="31">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s" s="27">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s" s="28">
-        <v>58</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="F2" s="15">
         <v>242</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="8">
         <v>2024</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s" s="29">
-        <v>62</v>
-      </c>
-      <c r="N2" t="s" s="30">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="16" t="s">
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="2">
+        <v>40</v>
+      </c>
+      <c r="F3" s="15">
         <v>242</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="16" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2">
+        <v>41</v>
+      </c>
+      <c r="F4" s="15">
         <v>242</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="16" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2">
+        <v>42</v>
+      </c>
+      <c r="F5" s="15">
         <v>242</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB526C60-5A1A-4818-AC62-EB1F17B9DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230A7DE-FB01-43BA-B660-C953C7FAB333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>FirstName</t>
   </si>
@@ -166,12 +166,25 @@
   </si>
   <si>
     <t>Mathematics</t>
+  </si>
+  <si>
+    <t>fpadmin</t>
+  </si>
+  <si>
+    <t>FPK12School83955</t>
+  </si>
+  <si>
+    <t>FPK12Classroom26964</t>
+  </si>
+  <si>
+    <t>FPK12Section94478</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -283,11 +296,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +356,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,20 +677,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0"/>
+    <col min="2" max="2" customWidth="true" width="23.5546875"/>
+    <col min="3" max="3" customWidth="true" width="24.77734375"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
+    <col min="8" max="8" customWidth="true" width="31.5546875"/>
+    <col min="10" max="10" customWidth="true" width="19.77734375"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="18.33203125"/>
+    <col min="13" max="13" customWidth="true" width="18.88671875"/>
+    <col min="14" max="14" customWidth="true" width="20.109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125"/>
+    <col min="16" max="16" customWidth="true" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -830,16 +859,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.44140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.6640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.77734375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.77734375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="27.5546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.6640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.33203125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1019,25 +1048,25 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0"/>
+    <col min="2" max="2" customWidth="true" width="23.5546875"/>
+    <col min="3" max="3" customWidth="true" width="24.77734375"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
+    <col min="8" max="8" customWidth="true" width="31.5546875"/>
+    <col min="10" max="10" customWidth="true" width="19.77734375"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="18.33203125"/>
+    <col min="13" max="13" customWidth="true" width="18.88671875"/>
+    <col min="14" max="14" customWidth="true" width="20.109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125"/>
+    <col min="16" max="16" customWidth="true" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1091,17 +1120,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>39</v>
+      <c r="A2" t="s" s="18">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="19">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s" s="20">
+        <v>51</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>14</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="104">
   <si>
     <t>FirstName</t>
   </si>
@@ -178,6 +178,162 @@
   </si>
   <si>
     <t>FPK12Section94478</t>
+  </si>
+  <si>
+    <t>FPK12School48827</t>
+  </si>
+  <si>
+    <t>FPK12Classroom6418</t>
+  </si>
+  <si>
+    <t>FPK12Section95696</t>
+  </si>
+  <si>
+    <t>52375</t>
+  </si>
+  <si>
+    <t>57964</t>
+  </si>
+  <si>
+    <t>48661</t>
+  </si>
+  <si>
+    <t>PortfolioCourse22847</t>
+  </si>
+  <si>
+    <t>AssignmentName22847</t>
+  </si>
+  <si>
+    <t>PortfolioCourse89829</t>
+  </si>
+  <si>
+    <t>AssignmentName89829</t>
+  </si>
+  <si>
+    <t>FPK12School75475</t>
+  </si>
+  <si>
+    <t>FPK12Classroom54198</t>
+  </si>
+  <si>
+    <t>FPK12Section53349</t>
+  </si>
+  <si>
+    <t>64362</t>
+  </si>
+  <si>
+    <t>72984</t>
+  </si>
+  <si>
+    <t>30280</t>
+  </si>
+  <si>
+    <t>FPK12School16051</t>
+  </si>
+  <si>
+    <t>FPK12Classroom94697</t>
+  </si>
+  <si>
+    <t>FPK12Section17697</t>
+  </si>
+  <si>
+    <t>75139</t>
+  </si>
+  <si>
+    <t>68668</t>
+  </si>
+  <si>
+    <t>99634</t>
+  </si>
+  <si>
+    <t>PortfolioCourse24372</t>
+  </si>
+  <si>
+    <t>AssignmentName24372</t>
+  </si>
+  <si>
+    <t>PortfolioCourse15071</t>
+  </si>
+  <si>
+    <t>AssignmentName15071</t>
+  </si>
+  <si>
+    <t>FPK12School94712</t>
+  </si>
+  <si>
+    <t>FPK12Classroom69288</t>
+  </si>
+  <si>
+    <t>FPK12Section7123</t>
+  </si>
+  <si>
+    <t>65029</t>
+  </si>
+  <si>
+    <t>45820</t>
+  </si>
+  <si>
+    <t>51399</t>
+  </si>
+  <si>
+    <t>PortfolioCourse28016</t>
+  </si>
+  <si>
+    <t>AssignmentName28016</t>
+  </si>
+  <si>
+    <t>PortfolioCourse69492</t>
+  </si>
+  <si>
+    <t>AssignmentName69492</t>
+  </si>
+  <si>
+    <t>PortfolioCourse93761</t>
+  </si>
+  <si>
+    <t>AssignmentName93761</t>
+  </si>
+  <si>
+    <t>PortfolioCourse87663</t>
+  </si>
+  <si>
+    <t>AssignmentName87663</t>
+  </si>
+  <si>
+    <t>AssignmentName28531</t>
+  </si>
+  <si>
+    <t>AssignmentName58831</t>
+  </si>
+  <si>
+    <t>AssignmentName60037</t>
+  </si>
+  <si>
+    <t>AssignmentName55751</t>
+  </si>
+  <si>
+    <t>AssignmentName30061</t>
+  </si>
+  <si>
+    <t>AssignmentName7020</t>
+  </si>
+  <si>
+    <t>AssignmentName710</t>
+  </si>
+  <si>
+    <t>AssignmentName99577</t>
+  </si>
+  <si>
+    <t>AssignmentName30134</t>
+  </si>
+  <si>
+    <t>AssignmentName37163</t>
+  </si>
+  <si>
+    <t>PortfolioCourse52603</t>
+  </si>
+  <si>
+    <t>AssignmentName52603</t>
   </si>
 </sst>
 </file>
@@ -307,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,6 +512,126 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -1120,14 +1396,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="18">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s" s="20">
-        <v>51</v>
+      <c r="A2" t="s" s="38">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s" s="39">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s" s="40">
+        <v>80</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>48</v>
@@ -1156,17 +1432,17 @@
       <c r="L2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>46</v>
+      <c r="M2" t="s" s="41">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s" s="42">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="59">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s" s="60">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1174,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F3" s="15">
         <v>242</v>
@@ -1188,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F4" s="15">
         <v>242</v>
@@ -1205,7 +1481,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F5" s="15">
         <v>242</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230A7DE-FB01-43BA-B660-C953C7FAB333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F90525-0AFC-40EB-A9D9-DD2A2D9532D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>FirstName</t>
   </si>
@@ -129,9 +129,6 @@
     <t>PortfolioCourse94545</t>
   </si>
   <si>
-    <t>fpk12district</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -171,93 +168,6 @@
     <t>fpadmin</t>
   </si>
   <si>
-    <t>FPK12School83955</t>
-  </si>
-  <si>
-    <t>FPK12Classroom26964</t>
-  </si>
-  <si>
-    <t>FPK12Section94478</t>
-  </si>
-  <si>
-    <t>FPK12School48827</t>
-  </si>
-  <si>
-    <t>FPK12Classroom6418</t>
-  </si>
-  <si>
-    <t>FPK12Section95696</t>
-  </si>
-  <si>
-    <t>52375</t>
-  </si>
-  <si>
-    <t>57964</t>
-  </si>
-  <si>
-    <t>48661</t>
-  </si>
-  <si>
-    <t>PortfolioCourse22847</t>
-  </si>
-  <si>
-    <t>AssignmentName22847</t>
-  </si>
-  <si>
-    <t>PortfolioCourse89829</t>
-  </si>
-  <si>
-    <t>AssignmentName89829</t>
-  </si>
-  <si>
-    <t>FPK12School75475</t>
-  </si>
-  <si>
-    <t>FPK12Classroom54198</t>
-  </si>
-  <si>
-    <t>FPK12Section53349</t>
-  </si>
-  <si>
-    <t>64362</t>
-  </si>
-  <si>
-    <t>72984</t>
-  </si>
-  <si>
-    <t>30280</t>
-  </si>
-  <si>
-    <t>FPK12School16051</t>
-  </si>
-  <si>
-    <t>FPK12Classroom94697</t>
-  </si>
-  <si>
-    <t>FPK12Section17697</t>
-  </si>
-  <si>
-    <t>75139</t>
-  </si>
-  <si>
-    <t>68668</t>
-  </si>
-  <si>
-    <t>99634</t>
-  </si>
-  <si>
-    <t>PortfolioCourse24372</t>
-  </si>
-  <si>
-    <t>AssignmentName24372</t>
-  </si>
-  <si>
-    <t>PortfolioCourse15071</t>
-  </si>
-  <si>
-    <t>AssignmentName15071</t>
-  </si>
-  <si>
     <t>FPK12School94712</t>
   </si>
   <si>
@@ -282,58 +192,19 @@
     <t>AssignmentName28016</t>
   </si>
   <si>
-    <t>PortfolioCourse69492</t>
-  </si>
-  <si>
-    <t>AssignmentName69492</t>
-  </si>
-  <si>
-    <t>PortfolioCourse93761</t>
-  </si>
-  <si>
-    <t>AssignmentName93761</t>
-  </si>
-  <si>
-    <t>PortfolioCourse87663</t>
-  </si>
-  <si>
-    <t>AssignmentName87663</t>
-  </si>
-  <si>
-    <t>AssignmentName28531</t>
-  </si>
-  <si>
-    <t>AssignmentName58831</t>
-  </si>
-  <si>
-    <t>AssignmentName60037</t>
-  </si>
-  <si>
-    <t>AssignmentName55751</t>
-  </si>
-  <si>
-    <t>AssignmentName30061</t>
-  </si>
-  <si>
-    <t>AssignmentName7020</t>
-  </si>
-  <si>
-    <t>AssignmentName710</t>
-  </si>
-  <si>
-    <t>AssignmentName99577</t>
-  </si>
-  <si>
-    <t>AssignmentName30134</t>
-  </si>
-  <si>
-    <t>AssignmentName37163</t>
-  </si>
-  <si>
     <t>PortfolioCourse52603</t>
   </si>
   <si>
     <t>AssignmentName52603</t>
+  </si>
+  <si>
+    <t>fpdistrict</t>
+  </si>
+  <si>
+    <t>PortfolioCourse11152</t>
+  </si>
+  <si>
+    <t>AssignmentName11152</t>
   </si>
 </sst>
 </file>
@@ -394,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -453,6 +324,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -463,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,133 +394,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,19 +783,19 @@
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="15">
         <v>1370</v>
@@ -1057,16 +819,16 @@
         <v>20</v>
       </c>
       <c r="M2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>46</v>
+      <c r="O2" t="s" s="19">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s" s="20">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1074,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="15">
         <v>1370</v>
@@ -1088,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="15">
         <v>1370</v>
@@ -1105,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="15">
         <v>1370</v>
@@ -1323,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
@@ -1396,17 +1158,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="38">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s" s="39">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s" s="40">
-        <v>80</v>
+      <c r="A2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>14</v>
@@ -1430,19 +1192,19 @@
         <v>19</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s" s="41">
-        <v>84</v>
-      </c>
-      <c r="N2" t="s" s="42">
-        <v>85</v>
-      </c>
-      <c r="O2" t="s" s="59">
-        <v>102</v>
-      </c>
-      <c r="P2" t="s" s="60">
-        <v>103</v>
+        <v>46</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1450,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F3" s="15">
         <v>242</v>
@@ -1464,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F4" s="15">
         <v>242</v>
@@ -1481,7 +1243,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F5" s="15">
         <v>242</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>FirstName</t>
   </si>
@@ -205,6 +205,150 @@
   </si>
   <si>
     <t>AssignmentName11152</t>
+  </si>
+  <si>
+    <t>PortfolioCourse46050</t>
+  </si>
+  <si>
+    <t>AssignmentName46050</t>
+  </si>
+  <si>
+    <t>PortfolioCourse46818</t>
+  </si>
+  <si>
+    <t>AssignmentName46818</t>
+  </si>
+  <si>
+    <t>PortfolioCourse50318</t>
+  </si>
+  <si>
+    <t>AssignmentName50318</t>
+  </si>
+  <si>
+    <t>PortfolioCourse24046</t>
+  </si>
+  <si>
+    <t>AssignmentName24046</t>
+  </si>
+  <si>
+    <t>PortfolioCourse74026</t>
+  </si>
+  <si>
+    <t>AssignmentName74026</t>
+  </si>
+  <si>
+    <t>PortfolioCourse81133</t>
+  </si>
+  <si>
+    <t>AssignmentName81133</t>
+  </si>
+  <si>
+    <t>PortfolioCourse5843</t>
+  </si>
+  <si>
+    <t>AssignmentName5843</t>
+  </si>
+  <si>
+    <t>PortfolioCourse85653</t>
+  </si>
+  <si>
+    <t>AssignmentName85653</t>
+  </si>
+  <si>
+    <t>PortfolioCourse38209</t>
+  </si>
+  <si>
+    <t>AssignmentName38209</t>
+  </si>
+  <si>
+    <t>PortfolioCourse19377</t>
+  </si>
+  <si>
+    <t>AssignmentName19377</t>
+  </si>
+  <si>
+    <t>PortfolioCourse19656</t>
+  </si>
+  <si>
+    <t>AssignmentName19656</t>
+  </si>
+  <si>
+    <t>PortfolioCourse96832</t>
+  </si>
+  <si>
+    <t>AssignmentName96832</t>
+  </si>
+  <si>
+    <t>PortfolioCourse6091</t>
+  </si>
+  <si>
+    <t>AssignmentName6091</t>
+  </si>
+  <si>
+    <t>PortfolioCourse74477</t>
+  </si>
+  <si>
+    <t>AssignmentName74477</t>
+  </si>
+  <si>
+    <t>PortfolioCourse22711</t>
+  </si>
+  <si>
+    <t>AssignmentName22711</t>
+  </si>
+  <si>
+    <t>PortfolioCourse37942</t>
+  </si>
+  <si>
+    <t>AssignmentName37942</t>
+  </si>
+  <si>
+    <t>PortfolioCourse83881</t>
+  </si>
+  <si>
+    <t>AssignmentName83881</t>
+  </si>
+  <si>
+    <t>PortfolioCourse80313</t>
+  </si>
+  <si>
+    <t>AssignmentName80313</t>
+  </si>
+  <si>
+    <t>PortfolioCourse23064</t>
+  </si>
+  <si>
+    <t>AssignmentName23064</t>
+  </si>
+  <si>
+    <t>PortfolioCourse44908</t>
+  </si>
+  <si>
+    <t>AssignmentName44908</t>
+  </si>
+  <si>
+    <t>PortfolioCourse58025</t>
+  </si>
+  <si>
+    <t>AssignmentName58025</t>
+  </si>
+  <si>
+    <t>PortfolioCourse83585</t>
+  </si>
+  <si>
+    <t>AssignmentName83585</t>
+  </si>
+  <si>
+    <t>PortfolioCourse42741</t>
+  </si>
+  <si>
+    <t>AssignmentName42741</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43348</t>
+  </si>
+  <si>
+    <t>AssignmentName43348</t>
   </si>
 </sst>
 </file>
@@ -345,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +540,150 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1194,11 +1482,11 @@
       <c r="L2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>55</v>
+      <c r="M2" t="s" s="67">
+        <v>107</v>
+      </c>
+      <c r="N2" t="s" s="68">
+        <v>108</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>56</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
   <si>
     <t>FirstName</t>
   </si>
@@ -349,6 +349,36 @@
   </si>
   <si>
     <t>AssignmentName43348</t>
+  </si>
+  <si>
+    <t>PortfolioCourse27283</t>
+  </si>
+  <si>
+    <t>AssignmentName27283</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43191</t>
+  </si>
+  <si>
+    <t>AssignmentName43191</t>
+  </si>
+  <si>
+    <t>PortfolioCourse36298</t>
+  </si>
+  <si>
+    <t>AssignmentName36298</t>
+  </si>
+  <si>
+    <t>PortfolioCourse4565</t>
+  </si>
+  <si>
+    <t>AssignmentName4565</t>
+  </si>
+  <si>
+    <t>PortfolioCourse1234</t>
+  </si>
+  <si>
+    <t>AssignmentName1234</t>
   </si>
 </sst>
 </file>
@@ -489,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,6 +570,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1482,11 +1542,11 @@
       <c r="L2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s" s="67">
-        <v>107</v>
-      </c>
-      <c r="N2" t="s" s="68">
-        <v>108</v>
+      <c r="M2" t="s" s="77">
+        <v>117</v>
+      </c>
+      <c r="N2" t="s" s="78">
+        <v>118</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>56</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
   <si>
     <t>FirstName</t>
   </si>
@@ -379,6 +379,48 @@
   </si>
   <si>
     <t>AssignmentName1234</t>
+  </si>
+  <si>
+    <t>PortfolioCourse13857</t>
+  </si>
+  <si>
+    <t>AssignmentName13857</t>
+  </si>
+  <si>
+    <t>PortfolioCourse62649</t>
+  </si>
+  <si>
+    <t>AssignmentName62649</t>
+  </si>
+  <si>
+    <t>FPK12School55263</t>
+  </si>
+  <si>
+    <t>FPK12Classroom58438</t>
+  </si>
+  <si>
+    <t>FPK12Section52955</t>
+  </si>
+  <si>
+    <t>42624</t>
+  </si>
+  <si>
+    <t>95165</t>
+  </si>
+  <si>
+    <t>85168</t>
+  </si>
+  <si>
+    <t>PortfolioCourse47810</t>
+  </si>
+  <si>
+    <t>AssignmentName47810</t>
+  </si>
+  <si>
+    <t>PortfolioCourse28407</t>
+  </si>
+  <si>
+    <t>AssignmentName28407</t>
   </si>
 </sst>
 </file>
@@ -519,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,6 +612,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1130,14 +1205,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>38</v>
+      <c r="A2" t="s" s="83">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s" s="84">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s" s="85">
+        <v>125</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>58</v>
@@ -1166,17 +1241,17 @@
       <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s" s="19">
-        <v>59</v>
-      </c>
-      <c r="P2" t="s" s="20">
-        <v>60</v>
+      <c r="M2" t="s" s="86">
+        <v>129</v>
+      </c>
+      <c r="N2" t="s" s="87">
+        <v>130</v>
+      </c>
+      <c r="O2" t="s" s="88">
+        <v>131</v>
+      </c>
+      <c r="P2" t="s" s="89">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1184,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="F3" s="15">
         <v>1370</v>
@@ -1198,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="F4" s="15">
         <v>1370</v>
@@ -1215,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="F5" s="15">
         <v>1370</v>
@@ -1542,11 +1617,11 @@
       <c r="L2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s" s="77">
-        <v>117</v>
-      </c>
-      <c r="N2" t="s" s="78">
-        <v>118</v>
+      <c r="M2" t="s" s="81">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s" s="82">
+        <v>122</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>56</v>

--- a/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
+++ b/src/test/resources/ExcelFiles/PortfolioCenter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
   <si>
     <t>FirstName</t>
   </si>
@@ -421,6 +421,42 @@
   </si>
   <si>
     <t>AssignmentName28407</t>
+  </si>
+  <si>
+    <t>FPK12School98936</t>
+  </si>
+  <si>
+    <t>FPK12Classroom81930</t>
+  </si>
+  <si>
+    <t>FPK12Section96909</t>
+  </si>
+  <si>
+    <t>99010</t>
+  </si>
+  <si>
+    <t>88564</t>
+  </si>
+  <si>
+    <t>38974</t>
+  </si>
+  <si>
+    <t>FPK12School87094</t>
+  </si>
+  <si>
+    <t>FPK12Classroom43816</t>
+  </si>
+  <si>
+    <t>FPK12Section17965</t>
+  </si>
+  <si>
+    <t>47938</t>
+  </si>
+  <si>
+    <t>44220</t>
+  </si>
+  <si>
+    <t>99142</t>
   </si>
 </sst>
 </file>
@@ -561,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,6 +648,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1205,14 +1259,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="83">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s" s="84">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s" s="85">
-        <v>125</v>
+      <c r="A2" t="s" s="93">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s" s="94">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s" s="95">
+        <v>141</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>58</v>
@@ -1259,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F3" s="15">
         <v>1370</v>
@@ -1273,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F4" s="15">
         <v>1370</v>
@@ -1290,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F5" s="15">
         <v>1370</v>
